--- a/biology/Botanique/Wurmbea/Wurmbea.xlsx
+++ b/biology/Botanique/Wurmbea/Wurmbea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wurmbea est un genre d'herbes vivaces de la famille des Colchicaceae, originaires d'Afrique et d'Australie.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces africaines
-Wurmbea angustifolia B. Nord. – De l'Est du Zimbabwe à l'Afrique du Sud
+          <t>Espèces africaines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wurmbea angustifolia B. Nord. – De l'Est du Zimbabwe à l'Afrique du Sud
 Wurmbea burttii B. Nord . – Du Lesotho au KwaZulu-Natal
 Wurmbea capensis Thunb. – Province du Cap sud-ouest
 Wurmbea compacta B.Nord. – Province du Cap sud-ouest
@@ -535,9 +552,43 @@
 Wurmbea spicata (Burm.f.) T.Durand &amp; Schinz – Province du Cap
 Wurmbea stricta (Burm.f.) JCManning &amp; Vinn. – Province du Cap
 Wurmbea tenuis (Hook.f.) Baker – Tropical &amp; Afrique du Sud
-Wurmbea variabilis B.Nord. – Province du Cap
-Espèces australiennes
-Wurmbea australis (RJBates) RJBates – Australie du Sud
+Wurmbea variabilis B.Nord. – Province du Cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wurmbea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wurmbea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces australiennes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wurmbea australis (RJBates) RJBates – Australie du Sud
 Wurmbea biglandulosa (R.Br.) TDMacfarl. – du sud-est du Queensland au sud-est. Australie
 Wurmbea calcicola T.D.Macfarl. – Sud-ouest de l'Australie
 Wurmbea centralis T.D.Macfarl. – Australie centrale et méridionale
